--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il17c-Il17re.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il17c-Il17re.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.198357333333333</v>
+        <v>0.07443033333333333</v>
       </c>
       <c r="H2">
-        <v>3.595072</v>
+        <v>0.223291</v>
       </c>
       <c r="I2">
-        <v>0.5044631819412814</v>
+        <v>0.07586947613633815</v>
       </c>
       <c r="J2">
-        <v>0.5044631819412814</v>
+        <v>0.07586947613633817</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.01191533333333333</v>
+        <v>0.03442933333333333</v>
       </c>
       <c r="N2">
-        <v>0.035746</v>
+        <v>0.103288</v>
       </c>
       <c r="O2">
-        <v>0.03575915937064839</v>
+        <v>0.13994583074207</v>
       </c>
       <c r="P2">
-        <v>0.03575915937064839</v>
+        <v>0.1399458307420701</v>
       </c>
       <c r="Q2">
-        <v>0.01427882707911111</v>
+        <v>0.002562586756444444</v>
       </c>
       <c r="R2">
-        <v>0.128509443712</v>
+        <v>0.023063280808</v>
       </c>
       <c r="S2">
-        <v>0.01803917931966268</v>
+        <v>0.0106176168658655</v>
       </c>
       <c r="T2">
-        <v>0.01803917931966268</v>
+        <v>0.01061761686586551</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.198357333333333</v>
+        <v>0.07443033333333333</v>
       </c>
       <c r="H3">
-        <v>3.595072</v>
+        <v>0.223291</v>
       </c>
       <c r="I3">
-        <v>0.5044631819412814</v>
+        <v>0.07586947613633815</v>
       </c>
       <c r="J3">
-        <v>0.5044631819412814</v>
+        <v>0.07586947613633817</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>0.463908</v>
       </c>
       <c r="O3">
-        <v>0.4640787809914049</v>
+        <v>0.6285530792337177</v>
       </c>
       <c r="P3">
-        <v>0.4640787809914049</v>
+        <v>0.6285530792337178</v>
       </c>
       <c r="Q3">
-        <v>0.1853091845973334</v>
+        <v>0.01150960902533333</v>
       </c>
       <c r="R3">
-        <v>1.667782661376</v>
+        <v>0.103586481228</v>
       </c>
       <c r="S3">
-        <v>0.2341106585303551</v>
+        <v>0.04768799284534441</v>
       </c>
       <c r="T3">
-        <v>0.2341106585303551</v>
+        <v>0.04768799284534443</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.198357333333333</v>
+        <v>0.07443033333333333</v>
       </c>
       <c r="H4">
-        <v>3.595072</v>
+        <v>0.223291</v>
       </c>
       <c r="I4">
-        <v>0.5044631819412814</v>
+        <v>0.07586947613633815</v>
       </c>
       <c r="J4">
-        <v>0.5044631819412814</v>
+        <v>0.07586947613633817</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1666593333333334</v>
+        <v>0.05695366666666666</v>
       </c>
       <c r="N4">
-        <v>0.499978</v>
+        <v>0.170861</v>
       </c>
       <c r="O4">
-        <v>0.5001620596379468</v>
+        <v>0.2315010900242122</v>
       </c>
       <c r="P4">
-        <v>0.5001620596379468</v>
+        <v>0.2315010900242122</v>
       </c>
       <c r="Q4">
-        <v>0.1997174342684445</v>
+        <v>0.004239080394555555</v>
       </c>
       <c r="R4">
-        <v>1.797456908416</v>
+        <v>0.038151723551</v>
       </c>
       <c r="S4">
-        <v>0.2523133440912636</v>
+        <v>0.01756386642512824</v>
       </c>
       <c r="T4">
-        <v>0.2523133440912636</v>
+        <v>0.01756386642512824</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>2.207784</v>
       </c>
       <c r="I5">
-        <v>0.3097978960307471</v>
+        <v>0.7501574873245639</v>
       </c>
       <c r="J5">
-        <v>0.309797896030747</v>
+        <v>0.7501574873245638</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.01191533333333333</v>
+        <v>0.03442933333333333</v>
       </c>
       <c r="N5">
-        <v>0.035746</v>
+        <v>0.103288</v>
       </c>
       <c r="O5">
-        <v>0.03575915937064839</v>
+        <v>0.13994583074207</v>
       </c>
       <c r="P5">
-        <v>0.03575915937064839</v>
+        <v>0.1399458307420701</v>
       </c>
       <c r="Q5">
-        <v>0.008768827429333333</v>
+        <v>0.02533751042133333</v>
       </c>
       <c r="R5">
-        <v>0.07891944686399999</v>
+        <v>0.228037593792</v>
       </c>
       <c r="S5">
-        <v>0.01107811233685505</v>
+        <v>0.10498141275102</v>
       </c>
       <c r="T5">
-        <v>0.01107811233685504</v>
+        <v>0.10498141275102</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>2.207784</v>
       </c>
       <c r="I6">
-        <v>0.3097978960307471</v>
+        <v>0.7501574873245639</v>
       </c>
       <c r="J6">
-        <v>0.309797896030747</v>
+        <v>0.7501574873245638</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>0.463908</v>
       </c>
       <c r="O6">
-        <v>0.4640787809914049</v>
+        <v>0.6285530792337177</v>
       </c>
       <c r="P6">
-        <v>0.4640787809914049</v>
+        <v>0.6285530792337178</v>
       </c>
       <c r="Q6">
         <v>0.113800962208</v>
@@ -818,10 +818,10 @@
         <v>1.024208659872</v>
       </c>
       <c r="S6">
-        <v>0.1437706299436511</v>
+        <v>0.4715137985680832</v>
       </c>
       <c r="T6">
-        <v>0.1437706299436511</v>
+        <v>0.4715137985680832</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>2.207784</v>
       </c>
       <c r="I7">
-        <v>0.3097978960307471</v>
+        <v>0.7501574873245639</v>
       </c>
       <c r="J7">
-        <v>0.309797896030747</v>
+        <v>0.7501574873245638</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1666593333333334</v>
+        <v>0.05695366666666666</v>
       </c>
       <c r="N7">
-        <v>0.499978</v>
+        <v>0.170861</v>
       </c>
       <c r="O7">
-        <v>0.5001620596379468</v>
+        <v>0.2315010900242122</v>
       </c>
       <c r="P7">
-        <v>0.5001620596379468</v>
+        <v>0.2315010900242122</v>
       </c>
       <c r="Q7">
-        <v>0.1226492698613333</v>
+        <v>0.04191379800266665</v>
       </c>
       <c r="R7">
-        <v>1.103843428752</v>
+        <v>0.3772241820239999</v>
       </c>
       <c r="S7">
-        <v>0.154949153750241</v>
+        <v>0.1736622760054607</v>
       </c>
       <c r="T7">
-        <v>0.1549491537502409</v>
+        <v>0.1736622760054607</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4412246666666667</v>
+        <v>0.170673</v>
       </c>
       <c r="H8">
-        <v>1.323674</v>
+        <v>0.512019</v>
       </c>
       <c r="I8">
-        <v>0.1857389220279715</v>
+        <v>0.173973036539098</v>
       </c>
       <c r="J8">
-        <v>0.1857389220279715</v>
+        <v>0.173973036539098</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.01191533333333333</v>
+        <v>0.03442933333333333</v>
       </c>
       <c r="N8">
-        <v>0.035746</v>
+        <v>0.103288</v>
       </c>
       <c r="O8">
-        <v>0.03575915937064839</v>
+        <v>0.13994583074207</v>
       </c>
       <c r="P8">
-        <v>0.03575915937064839</v>
+        <v>0.1399458307420701</v>
       </c>
       <c r="Q8">
-        <v>0.005257338978222222</v>
+        <v>0.005876157607999999</v>
       </c>
       <c r="R8">
-        <v>0.047316050804</v>
+        <v>0.05288541847200001</v>
       </c>
       <c r="S8">
-        <v>0.00664186771413067</v>
+        <v>0.02434680112518457</v>
       </c>
       <c r="T8">
-        <v>0.006641867714130669</v>
+        <v>0.02434680112518458</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4412246666666667</v>
+        <v>0.170673</v>
       </c>
       <c r="H9">
-        <v>1.323674</v>
+        <v>0.512019</v>
       </c>
       <c r="I9">
-        <v>0.1857389220279715</v>
+        <v>0.173973036539098</v>
       </c>
       <c r="J9">
-        <v>0.1857389220279715</v>
+        <v>0.173973036539098</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>0.463908</v>
       </c>
       <c r="O9">
-        <v>0.4640787809914049</v>
+        <v>0.6285530792337177</v>
       </c>
       <c r="P9">
-        <v>0.4640787809914049</v>
+        <v>0.6285530792337178</v>
       </c>
       <c r="Q9">
-        <v>0.06822921755466667</v>
+        <v>0.026392190028</v>
       </c>
       <c r="R9">
-        <v>0.6140629579920001</v>
+        <v>0.237529710252</v>
       </c>
       <c r="S9">
-        <v>0.08619749251739862</v>
+        <v>0.1093512878202901</v>
       </c>
       <c r="T9">
-        <v>0.08619749251739862</v>
+        <v>0.1093512878202901</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4412246666666667</v>
+        <v>0.170673</v>
       </c>
       <c r="H10">
-        <v>1.323674</v>
+        <v>0.512019</v>
       </c>
       <c r="I10">
-        <v>0.1857389220279715</v>
+        <v>0.173973036539098</v>
       </c>
       <c r="J10">
-        <v>0.1857389220279715</v>
+        <v>0.173973036539098</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1666593333333334</v>
+        <v>0.05695366666666666</v>
       </c>
       <c r="N10">
-        <v>0.499978</v>
+        <v>0.170861</v>
       </c>
       <c r="O10">
-        <v>0.5001620596379468</v>
+        <v>0.2315010900242122</v>
       </c>
       <c r="P10">
-        <v>0.5001620596379468</v>
+        <v>0.2315010900242122</v>
       </c>
       <c r="Q10">
-        <v>0.07353420879688889</v>
+        <v>0.009720453150999998</v>
       </c>
       <c r="R10">
-        <v>0.661807879172</v>
+        <v>0.08748407835899999</v>
       </c>
       <c r="S10">
-        <v>0.09289956179644225</v>
+        <v>0.04027494759362328</v>
       </c>
       <c r="T10">
-        <v>0.09289956179644224</v>
+        <v>0.04027494759362328</v>
       </c>
     </row>
   </sheetData>
